--- a/test/functional/xlsx_files/hyperlink14.xlsx
+++ b/test/functional/xlsx_files/hyperlink14.xlsx
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Perl Home</t>
+  </si>
+  <si>
+    <t>http://www.perl.org/</t>
   </si>
 </sst>
 </file>
